--- a/Design.xlsx
+++ b/Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Flying\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Flying\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>CostPerHour</t>
   </si>
@@ -53,7 +53,28 @@
     <t>SchedTbl</t>
   </si>
   <si>
-    <t>Days</t>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
   </si>
 </sst>
 </file>
@@ -371,21 +392,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -399,10 +420,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -412,8 +444,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -421,7 +456,50 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
